--- a/merchex/Excels/Montpellier_Export_Planning.xlsx
+++ b/merchex/Excels/Montpellier_Export_Planning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
   <x:si>
     <x:t>Poule</x:t>
   </x:si>
@@ -738,15 +738,15 @@
     <x:t>24/01/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>27/01/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>305 - VOLLEY BALL (ACAD HONNEUR  - F)</x:t>
+  </x:si>
+  <x:si>
     <x:t>304 - VOLLEY BALL (ACAD HONNEUR  - F)</x:t>
   </x:si>
   <x:si>
-    <x:t>27/01/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>305 - VOLLEY BALL (ACAD HONNEUR  - F)</x:t>
-  </x:si>
-  <x:si>
     <x:t>28/01/2025</x:t>
   </x:si>
   <x:si>
@@ -957,27 +957,27 @@
     <x:t>224 - RUGBY 7 (ACADEMIE - F)</x:t>
   </x:si>
   <x:si>
+    <x:t>20:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/02/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/02/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gymnase Mines Ales</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/02/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/02/2025</x:t>
+  </x:si>
+  <x:si>
     <x:t>401 - BASKET BALL (ACADEMIE - M)</x:t>
   </x:si>
   <x:si>
-    <x:t>20:31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14/02/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15/02/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gymnase Mines Ales</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17/02/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18/02/2025</x:t>
-  </x:si>
-  <x:si>
     <x:t>19/02/2025</x:t>
   </x:si>
   <x:si>
@@ -990,12 +990,12 @@
     <x:t>Univ NIMES</x:t>
   </x:si>
   <x:si>
+    <x:t>400 - BASKET BALL (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
     <x:t>20/02/2025</x:t>
   </x:si>
   <x:si>
-    <x:t>400 - BASKET BALL (ACADEMIE - M)</x:t>
-  </x:si>
-  <x:si>
     <x:t>24/02/2025</x:t>
   </x:si>
   <x:si>
@@ -1017,6 +1017,9 @@
     <x:t>Univ. Paul Valéry</x:t>
   </x:si>
   <x:si>
+    <x:t>018 - FOOT A 7 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
     <x:t>10/03/2025</x:t>
   </x:si>
   <x:si>
@@ -1038,6 +1041,9 @@
     <x:t>14/03/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>019 - FOOT A 7 (ACADEMIE - M)</x:t>
+  </x:si>
+  <x:si>
     <x:t>17/03/2025</x:t>
   </x:si>
   <x:si>
@@ -1050,40 +1056,52 @@
     <x:t>126 - RUGBY 7 (ACADEMIE - M)</x:t>
   </x:si>
   <x:si>
+    <x:t>19/03/2025</x:t>
+  </x:si>
+  <x:si>
     <x:t>127 - RUGBY 7 (ACADEMIE - M)</x:t>
   </x:si>
   <x:si>
-    <x:t>19/03/2025</x:t>
-  </x:si>
-  <x:si>
     <x:t>20/03/2025</x:t>
   </x:si>
   <x:si>
     <x:t>24/03/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>25/03/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/03/2025</x:t>
+  </x:si>
+  <x:si>
     <x:t>28/03/2025</x:t>
   </x:si>
   <x:si>
     <x:t>31/03/2025</x:t>
   </x:si>
   <x:si>
-    <x:t>03/04/2025</x:t>
+    <x:t>02/04/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/04/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/04/2025</x:t>
   </x:si>
   <x:si>
     <x:t>128 - RUGBY 7 (ACADEMIE - M)</x:t>
   </x:si>
   <x:si>
-    <x:t>08/04/2025</x:t>
-  </x:si>
-  <x:si>
     <x:t>129 - RUGBY 7 (ACADEMIE - M)</x:t>
   </x:si>
   <x:si>
     <x:t>09/04/2025</x:t>
   </x:si>
   <x:si>
-    <x:t>10/04/2025</x:t>
+    <x:t>14/04/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/04/2025</x:t>
   </x:si>
   <x:si>
     <x:t>24/04/2025</x:t>
@@ -1105,12 +1123,6 @@
   </x:si>
   <x:si>
     <x:t>22/05/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/06/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UM Kine Moma</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1487,7 +1499,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H516"/>
+  <x:dimension ref="A1:H521"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -5816,62 +5828,62 @@
     </x:row>
     <x:row r="218" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A218" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B218" s="1" t="s">
         <x:v>232</x:v>
       </x:c>
       <x:c r="C218" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D218" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E218" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F218" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A219" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B219" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C219" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="D219" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E219" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F219" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A220" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B220" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C220" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D220" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E220" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F220" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -5885,38 +5897,38 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="D221" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E221" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F221" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A222" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B222" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C222" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D222" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E222" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F222" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A223" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B223" s="1" t="s">
         <x:v>235</x:v>
@@ -5925,18 +5937,18 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="D223" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E223" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F223" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A224" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B224" s="1" t="s">
         <x:v>235</x:v>
@@ -5945,33 +5957,30 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="D224" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E224" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F224" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A225" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B225" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C225" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D225" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E225" s="1" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="F225" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -5985,32 +5994,35 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D226" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E226" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A227" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B227" s="1" t="s">
         <x:v>236</x:v>
       </x:c>
       <x:c r="C227" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D227" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E227" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F227" s="1" t="s">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A228" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B228" s="1" t="s">
         <x:v>236</x:v>
@@ -6019,10 +6031,10 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="D228" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E228" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F228" s="1" t="s">
         <x:v>28</x:v>
@@ -6030,47 +6042,47 @@
     </x:row>
     <x:row r="229" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A229" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B229" s="1" t="s">
         <x:v>236</x:v>
       </x:c>
       <x:c r="C229" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D229" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E229" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F229" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A230" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B230" s="1" t="s">
         <x:v>236</x:v>
       </x:c>
       <x:c r="C230" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D230" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E230" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F230" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A231" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B231" s="1" t="s">
         <x:v>236</x:v>
@@ -6079,10 +6091,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="D231" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E231" s="1" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="E231" s="1" t="s">
-        <x:v>44</x:v>
       </x:c>
       <x:c r="F231" s="1" t="s">
         <x:v>28</x:v>
@@ -6090,27 +6102,27 @@
     </x:row>
     <x:row r="232" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A232" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B232" s="1" t="s">
         <x:v>236</x:v>
       </x:c>
       <x:c r="C232" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D232" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E232" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F232" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A233" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B233" s="1" t="s">
         <x:v>236</x:v>
@@ -6119,18 +6131,18 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D233" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E233" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F233" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A234" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B234" s="1" t="s">
         <x:v>236</x:v>
@@ -6139,38 +6151,38 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D234" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E234" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F234" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A235" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B235" s="1" t="s">
         <x:v>236</x:v>
       </x:c>
       <x:c r="C235" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D235" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E235" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F235" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A236" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B236" s="1" t="s">
         <x:v>236</x:v>
@@ -6179,110 +6191,110 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="D236" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E236" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F236" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A237" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B237" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C237" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D237" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E237" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F237" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A238" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B238" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C238" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D238" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E238" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F238" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A239" s="1" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B239" s="1" t="s">
         <x:v>240</x:v>
       </x:c>
-      <x:c r="B239" s="1" t="s">
-        <x:v>241</x:v>
-      </x:c>
       <x:c r="C239" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D239" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E239" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F239" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A240" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B240" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C240" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D240" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E240" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F240" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A241" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B241" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C241" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D241" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E241" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F241" s="1" t="s">
         <x:v>28</x:v>
@@ -6290,22 +6302,22 @@
     </x:row>
     <x:row r="242" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A242" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B242" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C242" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D242" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E242" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F242" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -6313,16 +6325,16 @@
         <x:v>242</x:v>
       </x:c>
       <x:c r="B243" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C243" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D243" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E243" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F243" s="1" t="s">
         <x:v>28</x:v>
@@ -6330,39 +6342,39 @@
     </x:row>
     <x:row r="244" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A244" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B244" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C244" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D244" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E244" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F244" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A245" s="1" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B245" s="1" t="s">
         <x:v>240</x:v>
-      </x:c>
-      <x:c r="B245" s="1" t="s">
-        <x:v>241</x:v>
       </x:c>
       <x:c r="C245" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="D245" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E245" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F245" s="1" t="s">
         <x:v>28</x:v>
@@ -6370,119 +6382,119 @@
     </x:row>
     <x:row r="246" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A246" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B246" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C246" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="D246" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E246" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F246" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A247" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B247" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C247" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D247" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E247" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F247" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A248" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B248" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C248" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D248" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E248" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F248" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A249" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B249" s="1" t="s">
         <x:v>243</x:v>
       </x:c>
       <x:c r="C249" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D249" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E249" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F249" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A250" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B250" s="1" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C250" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D250" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E250" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F250" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A251" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B251" s="1" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C251" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D251" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E251" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F251" s="1" t="s">
         <x:v>85</x:v>
@@ -6490,27 +6502,27 @@
     </x:row>
     <x:row r="252" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A252" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B252" s="1" t="s">
         <x:v>244</x:v>
       </x:c>
       <x:c r="C252" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D252" s="1" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="E252" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F252" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A253" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B253" s="1" t="s">
         <x:v>244</x:v>
@@ -6519,18 +6531,18 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="D253" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E253" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F253" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A254" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B254" s="1" t="s">
         <x:v>244</x:v>
@@ -6539,53 +6551,53 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="D254" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E254" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F254" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A255" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B255" s="1" t="s">
         <x:v>244</x:v>
       </x:c>
       <x:c r="C255" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D255" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E255" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F255" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A256" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B256" s="1" t="s">
         <x:v>244</x:v>
       </x:c>
       <x:c r="C256" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D256" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E256" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F256" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -6596,13 +6608,13 @@
         <x:v>244</x:v>
       </x:c>
       <x:c r="C257" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D257" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E257" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F257" s="1" t="s">
         <x:v>85</x:v>
@@ -6616,13 +6628,13 @@
         <x:v>244</x:v>
       </x:c>
       <x:c r="C258" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D258" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E258" s="1" t="s">
         <x:v>132</x:v>
-      </x:c>
-      <x:c r="E258" s="1" t="s">
-        <x:v>83</x:v>
       </x:c>
       <x:c r="F258" s="1" t="s">
         <x:v>85</x:v>
@@ -6630,139 +6642,139 @@
     </x:row>
     <x:row r="259" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A259" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B259" s="1" t="s">
-        <x:v>244</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C259" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D259" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E259" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F259" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A260" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B260" s="1" t="s">
-        <x:v>244</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C260" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D260" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E260" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F260" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A261" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B261" s="1" t="s">
         <x:v>246</x:v>
       </x:c>
       <x:c r="C261" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D261" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E261" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F261" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A262" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B262" s="1" t="s">
         <x:v>246</x:v>
       </x:c>
       <x:c r="C262" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D262" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E262" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F262" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A263" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B263" s="1" t="s">
         <x:v>246</x:v>
       </x:c>
       <x:c r="C263" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D263" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E263" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F263" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A264" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B264" s="1" t="s">
         <x:v>246</x:v>
       </x:c>
       <x:c r="C264" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D264" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E264" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F264" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A265" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B265" s="1" t="s">
         <x:v>246</x:v>
       </x:c>
       <x:c r="C265" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D265" s="1" t="s">
         <x:v>99</x:v>
       </x:c>
       <x:c r="E265" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F265" s="1" t="s">
         <x:v>28</x:v>
@@ -6770,179 +6782,179 @@
     </x:row>
     <x:row r="266" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A266" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B266" s="1" t="s">
         <x:v>246</x:v>
       </x:c>
       <x:c r="C266" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D266" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E266" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F266" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A267" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B267" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C267" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D267" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E267" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F267" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A268" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B268" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C268" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D268" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E268" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F268" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A269" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B269" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C269" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D269" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E269" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F269" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A270" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B270" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C270" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D270" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E270" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F270" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A271" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B271" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C271" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D271" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E271" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F271" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="272" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A272" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B272" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C272" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D272" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E272" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F272" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A273" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B273" s="1" t="s">
         <x:v>251</x:v>
       </x:c>
       <x:c r="C273" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D273" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E273" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F273" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A274" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B274" s="1" t="s">
         <x:v>251</x:v>
       </x:c>
       <x:c r="C274" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D274" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E274" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F274" s="1" t="s">
         <x:v>28</x:v>
@@ -6950,19 +6962,19 @@
     </x:row>
     <x:row r="275" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A275" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B275" s="1" t="s">
         <x:v>251</x:v>
       </x:c>
       <x:c r="C275" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D275" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E275" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F275" s="1" t="s">
         <x:v>28</x:v>
@@ -6970,19 +6982,19 @@
     </x:row>
     <x:row r="276" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A276" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B276" s="1" t="s">
         <x:v>251</x:v>
       </x:c>
       <x:c r="C276" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D276" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E276" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F276" s="1" t="s">
         <x:v>28</x:v>
@@ -6990,119 +7002,119 @@
     </x:row>
     <x:row r="277" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A277" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B277" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C277" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D277" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E277" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F277" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A278" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B278" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C278" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D278" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E278" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F278" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A279" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B279" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C279" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D279" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="E279" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="F279" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A280" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B280" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C280" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D280" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="E280" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="F280" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A281" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B281" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C281" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D281" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="E281" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="F281" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A282" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B282" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C282" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D282" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E282" s="1" t="s">
-        <x:v>257</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="F282" s="1" t="s">
         <x:v>258</x:v>
@@ -7110,39 +7122,39 @@
     </x:row>
     <x:row r="283" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A283" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B283" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C283" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D283" s="1" t="s">
-        <x:v>259</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="E283" s="1" t="s">
-        <x:v>260</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F283" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A284" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B284" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C284" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D284" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="E284" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="F284" s="1" t="s">
         <x:v>261</x:v>
@@ -7150,39 +7162,39 @@
     </x:row>
     <x:row r="285" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A285" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B285" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C285" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D285" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="E285" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="F285" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A286" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B286" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C286" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D286" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E286" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="F286" s="1" t="s">
         <x:v>258</x:v>
@@ -7190,39 +7202,39 @@
     </x:row>
     <x:row r="287" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A287" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B287" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C287" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D287" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E287" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F287" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A288" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B288" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C288" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D288" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E288" s="1" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="F288" s="1" t="s">
         <x:v>261</x:v>
@@ -7230,39 +7242,39 @@
     </x:row>
     <x:row r="289" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A289" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B289" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C289" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D289" s="1" t="s">
-        <x:v>257</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="E289" s="1" t="s">
-        <x:v>259</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="F289" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A290" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B290" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C290" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D290" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="E290" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F290" s="1" t="s">
         <x:v>258</x:v>
@@ -7270,39 +7282,39 @@
     </x:row>
     <x:row r="291" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A291" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B291" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C291" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D291" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="E291" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="F291" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="292" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A292" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B292" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C292" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D292" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="E292" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="F292" s="1" t="s">
         <x:v>261</x:v>
@@ -7310,39 +7322,39 @@
     </x:row>
     <x:row r="293" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A293" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B293" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C293" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D293" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E293" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="F293" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="294" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A294" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B294" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C294" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D294" s="1" t="s">
-        <x:v>259</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="E294" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="F294" s="1" t="s">
         <x:v>258</x:v>
@@ -7350,39 +7362,39 @@
     </x:row>
     <x:row r="295" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A295" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B295" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C295" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D295" s="1" t="s">
-        <x:v>260</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="E295" s="1" t="s">
-        <x:v>257</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="F295" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="296" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A296" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B296" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C296" s="1" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D296" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E296" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F296" s="1" t="s">
         <x:v>261</x:v>
@@ -7390,39 +7402,39 @@
     </x:row>
     <x:row r="297" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A297" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B297" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C297" s="1" t="s">
-        <x:v>278</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D297" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="E297" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="F297" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="298" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A298" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B298" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C298" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D298" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="E298" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="F298" s="1" t="s">
         <x:v>258</x:v>
@@ -7430,19 +7442,19 @@
     </x:row>
     <x:row r="299" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A299" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B299" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C299" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D299" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="E299" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="F299" s="1" t="s">
         <x:v>261</x:v>
@@ -7450,39 +7462,39 @@
     </x:row>
     <x:row r="300" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A300" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B300" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C300" s="1" t="s">
-        <x:v>281</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D300" s="1" t="s">
-        <x:v>282</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="E300" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="F300" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="301" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A301" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B301" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C301" s="1" t="s">
-        <x:v>281</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D301" s="1" t="s">
-        <x:v>284</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="E301" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="F301" s="1" t="s">
         <x:v>258</x:v>
@@ -7490,19 +7502,19 @@
     </x:row>
     <x:row r="302" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A302" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B302" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C302" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D302" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E302" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="F302" s="1" t="s">
         <x:v>261</x:v>
@@ -7510,39 +7522,39 @@
     </x:row>
     <x:row r="303" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A303" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B303" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C303" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D303" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="E303" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="F303" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A304" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B304" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C304" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D304" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="E304" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F304" s="1" t="s">
         <x:v>258</x:v>
@@ -7550,19 +7562,19 @@
     </x:row>
     <x:row r="305" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A305" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B305" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C305" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="D305" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="E305" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F305" s="1" t="s">
         <x:v>261</x:v>
@@ -7570,39 +7582,39 @@
     </x:row>
     <x:row r="306" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A306" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B306" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C306" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="D306" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="E306" s="1" t="s">
-        <x:v>284</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="F306" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A307" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B307" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C307" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="D307" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="E307" s="1" t="s">
-        <x:v>282</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="F307" s="1" t="s">
         <x:v>258</x:v>
@@ -7610,19 +7622,19 @@
     </x:row>
     <x:row r="308" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A308" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B308" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C308" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="D308" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E308" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F308" s="1" t="s">
         <x:v>261</x:v>
@@ -7630,19 +7642,19 @@
     </x:row>
     <x:row r="309" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A309" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B309" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C309" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="D309" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="E309" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="F309" s="1" t="s">
         <x:v>258</x:v>
@@ -7650,242 +7662,236 @@
     </x:row>
     <x:row r="310" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A310" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B310" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C310" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="D310" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="E310" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="F310" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A311" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B311" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C311" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D311" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="E311" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F311" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="312" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A312" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B312" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C312" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D312" s="1" t="s">
-        <x:v>282</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="E312" s="1" t="s">
-        <x:v>284</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="F312" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="313" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A313" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B313" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C313" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D313" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E313" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F313" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="314" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A314" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B314" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C314" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D314" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="E314" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="F314" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A315" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B315" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C315" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D315" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E315" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F315" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="316" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A316" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B316" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C316" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D316" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E316" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F316" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A317" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B317" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C317" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D317" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E317" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F317" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A318" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B318" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="C318" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D318" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E318" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F318" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="319" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A319" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B319" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C319" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D319" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E319" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F319" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="320" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A320" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B320" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C320" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D320" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E320" s="1" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F320" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A321" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B321" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C321" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D321" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E321" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F321" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="322" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -7896,87 +7902,93 @@
         <x:v>299</x:v>
       </x:c>
       <x:c r="C322" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D322" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E322" s="1" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="F322" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="323" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A323" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B323" s="1" t="s">
         <x:v>299</x:v>
       </x:c>
       <x:c r="C323" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D323" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E323" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="F323" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="324" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A324" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B324" s="1" t="s">
         <x:v>299</x:v>
       </x:c>
       <x:c r="C324" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D324" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E324" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F324" s="1" t="s">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A325" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B325" s="1" t="s">
         <x:v>299</x:v>
       </x:c>
       <x:c r="C325" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D325" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E325" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F325" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="326" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A326" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B326" s="1" t="s">
         <x:v>299</x:v>
       </x:c>
       <x:c r="C326" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D326" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E326" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F326" s="1" t="s">
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="327" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -7987,13 +7999,13 @@
         <x:v>299</x:v>
       </x:c>
       <x:c r="C327" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D327" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E327" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F327" s="1" t="s">
         <x:v>24</x:v>
@@ -8001,16 +8013,16 @@
     </x:row>
     <x:row r="328" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A328" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B328" s="1" t="s">
         <x:v>299</x:v>
       </x:c>
       <x:c r="C328" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D328" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E328" s="1" t="s">
         <x:v>61</x:v>
@@ -8021,79 +8033,79 @@
     </x:row>
     <x:row r="329" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A329" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B329" s="1" t="s">
         <x:v>299</x:v>
       </x:c>
       <x:c r="C329" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D329" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E329" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F329" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="330" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A330" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B330" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="C330" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D330" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E330" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F330" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="331" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A331" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B331" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="C331" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D331" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E331" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F331" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="332" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A332" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B332" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="C332" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D332" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E332" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F332" s="1" t="s">
         <x:v>28</x:v>
@@ -8101,379 +8113,379 @@
     </x:row>
     <x:row r="333" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A333" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B333" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="C333" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D333" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E333" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F333" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="334" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A334" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B334" s="1" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="C334" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D334" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E334" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F334" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="335" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A335" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B335" s="1" t="s">
         <x:v>303</x:v>
       </x:c>
       <x:c r="C335" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D335" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E335" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F335" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="336" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A336" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B336" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C336" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D336" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E336" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F336" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="337" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A337" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B337" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C337" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D337" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E337" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F337" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="338" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A338" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B338" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C338" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="D338" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E338" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F338" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="339" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A339" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B339" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C339" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D339" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E339" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F339" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="340" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A340" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B340" s="1" t="s">
         <x:v>305</x:v>
       </x:c>
       <x:c r="C340" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D340" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E340" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F340" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="341" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A341" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B341" s="1" t="s">
         <x:v>305</x:v>
       </x:c>
       <x:c r="C341" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D341" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E341" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F341" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="342" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A342" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B342" s="1" t="s">
         <x:v>305</x:v>
       </x:c>
       <x:c r="C342" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D342" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E342" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F342" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="343" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A343" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B343" s="1" t="s">
         <x:v>305</x:v>
       </x:c>
       <x:c r="C343" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D343" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E343" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F343" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="344" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A344" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B344" s="1" t="s">
         <x:v>305</x:v>
       </x:c>
       <x:c r="C344" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D344" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E344" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F344" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="345" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A345" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B345" s="1" t="s">
         <x:v>305</x:v>
       </x:c>
       <x:c r="C345" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D345" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E345" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F345" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="346" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A346" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B346" s="1" t="s">
         <x:v>305</x:v>
       </x:c>
       <x:c r="C346" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D346" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E346" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F346" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="347" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A347" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B347" s="1" t="s">
         <x:v>305</x:v>
       </x:c>
       <x:c r="C347" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D347" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E347" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F347" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="348" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A348" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B348" s="1" t="s">
         <x:v>305</x:v>
       </x:c>
       <x:c r="C348" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D348" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E348" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F348" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="349" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A349" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B349" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C349" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D349" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E349" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F349" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="350" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A350" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B350" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C350" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D350" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E350" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F350" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="351" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A351" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B351" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C351" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D351" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E351" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F351" s="1" t="s">
         <x:v>85</x:v>
@@ -8481,19 +8493,19 @@
     </x:row>
     <x:row r="352" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A352" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B352" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C352" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D352" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E352" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F352" s="1" t="s">
         <x:v>85</x:v>
@@ -8501,22 +8513,22 @@
     </x:row>
     <x:row r="353" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A353" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B353" s="1" t="s">
         <x:v>308</x:v>
       </x:c>
       <x:c r="C353" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D353" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E353" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F353" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="354" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -8527,13 +8539,13 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="C354" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D354" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E354" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F354" s="1" t="s">
         <x:v>85</x:v>
@@ -8547,13 +8559,13 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="C355" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D355" s="1" t="s">
         <x:v>203</x:v>
       </x:c>
       <x:c r="E355" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F355" s="1" t="s">
         <x:v>85</x:v>
@@ -8561,139 +8573,139 @@
     </x:row>
     <x:row r="356" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A356" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B356" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C356" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D356" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E356" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F356" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="357" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A357" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B357" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C357" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D357" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E357" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F357" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="358" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A358" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B358" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C358" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="D358" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E358" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F358" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="359" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A359" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B359" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C359" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D359" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E359" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F359" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="360" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A360" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B360" s="1" t="s">
         <x:v>310</x:v>
       </x:c>
       <x:c r="C360" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D360" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E360" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F360" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="361" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A361" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B361" s="1" t="s">
         <x:v>310</x:v>
       </x:c>
       <x:c r="C361" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D361" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E361" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F361" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="362" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A362" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B362" s="1" t="s">
         <x:v>310</x:v>
       </x:c>
       <x:c r="C362" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D362" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E362" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F362" s="1" t="s">
         <x:v>28</x:v>
@@ -8701,22 +8713,22 @@
     </x:row>
     <x:row r="363" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A363" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B363" s="1" t="s">
         <x:v>310</x:v>
       </x:c>
       <x:c r="C363" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D363" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E363" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F363" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="364" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -8727,13 +8739,13 @@
         <x:v>310</x:v>
       </x:c>
       <x:c r="C364" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D364" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E364" s="1" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="E364" s="1" t="s">
-        <x:v>140</x:v>
       </x:c>
       <x:c r="F364" s="1" t="s">
         <x:v>185</x:v>
@@ -8741,379 +8753,379 @@
     </x:row>
     <x:row r="365" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A365" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B365" s="1" t="s">
         <x:v>310</x:v>
       </x:c>
       <x:c r="C365" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D365" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E365" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F365" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="366" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A366" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B366" s="1" t="s">
         <x:v>310</x:v>
       </x:c>
       <x:c r="C366" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D366" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E366" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F366" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="367" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A367" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B367" s="1" t="s">
         <x:v>310</x:v>
       </x:c>
       <x:c r="C367" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D367" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E367" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F367" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="368" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A368" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B368" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C368" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D368" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E368" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F368" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="369" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A369" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B369" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="C369" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D369" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E369" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F369" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="370" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A370" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B370" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C370" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D370" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E370" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F370" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="371" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A371" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B371" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C371" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D371" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E371" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F371" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="372" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A372" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B372" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C372" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D372" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E372" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F372" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="373" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A373" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B373" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C373" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D373" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E373" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F373" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="374" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A374" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B374" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C374" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D374" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E374" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F374" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="375" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A375" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B375" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C375" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D375" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E375" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F375" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="376" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A376" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B376" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C376" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D376" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E376" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F376" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="377" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A377" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B377" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C377" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D377" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E377" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F377" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="378" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A378" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B378" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C378" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D378" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E378" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F378" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="379" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A379" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B379" s="1" t="s">
         <x:v>318</x:v>
       </x:c>
       <x:c r="C379" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D379" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E379" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F379" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="380" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A380" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B380" s="1" t="s">
         <x:v>318</x:v>
       </x:c>
       <x:c r="C380" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D380" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E380" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F380" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="381" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A381" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B381" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C381" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D381" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E381" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F381" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="382" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A382" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B382" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C382" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D382" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="E382" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="F382" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="383" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A383" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B383" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C383" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D383" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E383" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F383" s="1" t="s">
         <x:v>24</x:v>
@@ -9121,159 +9133,159 @@
     </x:row>
     <x:row r="384" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A384" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B384" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C384" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="D384" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E384" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F384" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="385" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A385" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B385" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C385" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D385" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E385" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F385" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="386" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A386" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B386" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="C386" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D386" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E386" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F386" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="387" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A387" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B387" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C387" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D387" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E387" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F387" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="388" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A388" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B388" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C388" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D388" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E388" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F388" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="389" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A389" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B389" s="1" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C389" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D389" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E389" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F389" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="390" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A390" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B390" s="1" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C390" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="D390" s="1" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="E390" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="E390" s="1" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="F390" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="391" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A391" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B391" s="1" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C391" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="D391" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E391" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F391" s="1" t="s">
         <x:v>28</x:v>
@@ -9281,179 +9293,179 @@
     </x:row>
     <x:row r="392" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A392" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B392" s="1" t="s">
-        <x:v>324</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C392" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D392" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E392" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F392" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="393" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A393" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B393" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C393" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D393" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E393" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F393" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="394" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A394" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B394" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C394" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D394" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E394" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F394" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="395" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A395" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B395" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C395" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D395" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E395" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F395" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="396" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A396" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B396" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C396" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D396" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E396" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F396" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="397" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A397" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B397" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C397" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D397" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E397" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="F397" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="398" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A398" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B398" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C398" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D398" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E398" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F398" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="399" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A399" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B399" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C399" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D399" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E399" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F399" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="400" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A400" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B400" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C400" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D400" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E400" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F400" s="1" t="s">
         <x:v>24</x:v>
@@ -9461,879 +9473,879 @@
     </x:row>
     <x:row r="401" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A401" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B401" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C401" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D401" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E401" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F401" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="402" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A402" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B402" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C402" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D402" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E402" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F402" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="403" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A403" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B403" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C403" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D403" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E403" s="1" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="F403" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="404" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A404" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B404" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C404" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D404" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E404" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F404" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="405" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A405" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B405" s="1" t="s">
         <x:v>330</x:v>
       </x:c>
       <x:c r="C405" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D405" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E405" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F405" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="406" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A406" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B406" s="1" t="s">
         <x:v>330</x:v>
       </x:c>
       <x:c r="C406" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D406" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E406" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F406" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="407" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A407" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B407" s="1" t="s">
         <x:v>330</x:v>
       </x:c>
       <x:c r="C407" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D407" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E407" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F407" s="1" t="s">
-        <x:v>331</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="408" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A408" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B408" s="1" t="s">
         <x:v>330</x:v>
       </x:c>
       <x:c r="C408" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D408" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="E408" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F408" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="409" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A409" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B409" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C409" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D409" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E409" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F409" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="410" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A410" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B410" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C410" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D410" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E410" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F410" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="411" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A411" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B411" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C411" s="1" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="D411" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E411" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F411" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="412" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A412" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B412" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C412" s="1" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="D412" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E412" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F412" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="413" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A413" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B413" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C413" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D413" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E413" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F413" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="414" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A414" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B414" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C414" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="D414" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E414" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F414" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="415" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A415" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B415" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C415" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D415" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E415" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F415" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="416" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A416" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B416" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C416" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D416" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E416" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F416" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="417" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A417" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B417" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C417" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D417" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E417" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F417" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="418" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A418" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B418" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C418" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D418" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="E418" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F418" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="419" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A419" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B419" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C419" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D419" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E419" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F419" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="420" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A420" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B420" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C420" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D420" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E420" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F420" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="421" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A421" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B421" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C421" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D421" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E421" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F421" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="422" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A422" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B422" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C422" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D422" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E422" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F422" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="423" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A423" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B423" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C423" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="D423" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E423" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F423" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="424" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A424" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B424" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C424" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D424" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E424" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F424" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="425" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A425" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B425" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C425" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D425" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E425" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F425" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="426" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A426" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B426" s="1" t="s">
-        <x:v>336</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C426" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D426" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E426" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F426" s="1" t="s">
-        <x:v>337</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="427" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A427" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B427" s="1" t="s">
-        <x:v>336</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C427" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D427" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E427" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F427" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="428" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A428" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B428" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C428" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D428" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E428" s="1" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="E428" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="F428" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="429" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A429" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B429" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C429" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D429" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E429" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F429" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="430" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A430" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B430" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C430" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D430" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E430" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F430" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="431" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A431" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B431" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C431" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D431" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E431" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F431" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="432" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A432" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B432" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C432" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D432" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E432" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F432" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="433" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A433" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B433" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C433" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D433" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E433" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F433" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="434" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A434" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B434" s="1" t="s">
-        <x:v>339</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C434" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D434" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E434" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F434" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="435" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A435" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B435" s="1" t="s">
-        <x:v>340</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C435" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D435" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E435" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F435" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="436" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A436" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B436" s="1" t="s">
-        <x:v>340</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C436" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D436" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E436" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F436" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="437" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A437" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B437" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C437" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D437" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E437" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F437" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="438" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A438" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B438" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C438" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D438" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E438" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F438" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="439" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A439" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B439" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C439" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D439" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E439" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F439" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="440" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A440" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B440" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C440" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D440" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E440" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F440" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="441" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A441" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B441" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C441" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D441" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E441" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F441" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="442" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A442" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B442" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C442" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D442" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E442" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F442" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="443" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A443" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B443" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C443" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D443" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E443" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F443" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="444" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A444" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B444" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C444" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D444" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E444" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F444" s="1" t="s">
         <x:v>85</x:v>
@@ -10341,19 +10353,19 @@
     </x:row>
     <x:row r="445" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A445" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B445" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C445" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D445" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E445" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F445" s="1" t="s">
         <x:v>85</x:v>
@@ -10361,59 +10373,59 @@
     </x:row>
     <x:row r="446" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A446" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B446" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C446" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D446" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E446" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F446" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="447" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A447" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B447" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C447" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D447" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E447" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F447" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="448" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A448" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B448" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C448" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D448" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E448" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F448" s="1" t="s">
         <x:v>85</x:v>
@@ -10421,19 +10433,19 @@
     </x:row>
     <x:row r="449" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A449" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B449" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C449" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D449" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="E449" s="1" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="E449" s="1" t="s">
-        <x:v>203</x:v>
       </x:c>
       <x:c r="F449" s="1" t="s">
         <x:v>85</x:v>
@@ -10441,16 +10453,16 @@
     </x:row>
     <x:row r="450" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A450" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B450" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C450" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D450" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E450" s="1" t="s">
         <x:v>164</x:v>
@@ -10461,19 +10473,19 @@
     </x:row>
     <x:row r="451" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A451" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B451" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C451" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D451" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E451" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F451" s="1" t="s">
         <x:v>85</x:v>
@@ -10481,79 +10493,79 @@
     </x:row>
     <x:row r="452" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A452" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B452" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C452" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D452" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E452" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F452" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="453" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A453" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B453" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C453" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D453" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E453" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F453" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="454" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A454" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B454" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C454" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D454" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E454" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F454" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="455" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A455" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B455" s="1" t="s">
-        <x:v>346</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C455" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D455" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E455" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F455" s="1" t="s">
         <x:v>24</x:v>
@@ -10561,22 +10573,22 @@
     </x:row>
     <x:row r="456" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A456" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B456" s="1" t="s">
-        <x:v>346</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C456" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D456" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E456" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F456" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="457" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -10584,7 +10596,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B457" s="1" t="s">
-        <x:v>346</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C457" s="1" t="s">
         <x:v>42</x:v>
@@ -10601,22 +10613,22 @@
     </x:row>
     <x:row r="458" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A458" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B458" s="1" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C458" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D458" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E458" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F458" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="459" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -10624,16 +10636,16 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B459" s="1" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C459" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D459" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E459" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F459" s="1" t="s">
         <x:v>70</x:v>
@@ -10641,39 +10653,39 @@
     </x:row>
     <x:row r="460" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A460" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B460" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C460" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D460" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E460" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F460" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="461" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A461" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B461" s="1" t="s">
         <x:v>349</x:v>
       </x:c>
       <x:c r="C461" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D461" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E461" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F461" s="1" t="s">
         <x:v>70</x:v>
@@ -10681,42 +10693,42 @@
     </x:row>
     <x:row r="462" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A462" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B462" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C462" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D462" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E462" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F462" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="463" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A463" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B463" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C463" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D463" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E463" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F463" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="464" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -10724,216 +10736,216 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B464" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C464" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D464" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E464" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="F464" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="465" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A465" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B465" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C465" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D465" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E465" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F465" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="466" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A466" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B466" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C466" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D466" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E466" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F466" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="467" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A467" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B467" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C467" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D467" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E467" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F467" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="468" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A468" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B468" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C468" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D468" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E468" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F468" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="469" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A469" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B469" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C469" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D469" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E469" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="F469" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="470" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A470" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B470" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C470" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D470" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E470" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F470" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="471" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A471" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B471" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="C471" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D471" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E471" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F471" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="472" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A472" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B472" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="C472" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D472" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E472" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F472" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="473" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A473" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B473" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C473" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D473" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E473" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F473" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="474" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A474" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B474" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C474" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D474" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E474" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F474" s="1" t="s">
         <x:v>85</x:v>
@@ -10941,19 +10953,19 @@
     </x:row>
     <x:row r="475" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A475" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B475" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C475" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D475" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E475" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F475" s="1" t="s">
         <x:v>85</x:v>
@@ -10961,19 +10973,19 @@
     </x:row>
     <x:row r="476" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A476" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B476" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C476" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D476" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E476" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F476" s="1" t="s">
         <x:v>85</x:v>
@@ -10981,142 +10993,142 @@
     </x:row>
     <x:row r="477" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A477" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B477" s="1" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C477" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D477" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E477" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F477" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="478" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A478" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B478" s="1" t="s">
         <x:v>356</x:v>
       </x:c>
       <x:c r="C478" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D478" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E478" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F478" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="479" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A479" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B479" s="1" t="s">
-        <x:v>357</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C479" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D479" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E479" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F479" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="480" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A480" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B480" s="1" t="s">
-        <x:v>357</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C480" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D480" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E480" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F480" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="481" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A481" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B481" s="1" t="s">
-        <x:v>357</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C481" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D481" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E481" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F481" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="482" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A482" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B482" s="1" t="s">
-        <x:v>357</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C482" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D482" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E482" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F482" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="483" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A483" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B483" s="1" t="s">
-        <x:v>357</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C483" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D483" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E483" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F483" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="484" spans="1:8" customFormat="1" ht="15" customHeight="1">
@@ -11127,33 +11139,33 @@
         <x:v>359</x:v>
       </x:c>
       <x:c r="C484" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D484" s="1" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="E484" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F484" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="485" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A485" s="1" t="s">
-        <x:v>360</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B485" s="1" t="s">
         <x:v>359</x:v>
       </x:c>
       <x:c r="C485" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D485" s="1" t="s">
         <x:v>93</x:v>
       </x:c>
       <x:c r="E485" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F485" s="1" t="s">
         <x:v>85</x:v>
@@ -11161,529 +11173,629 @@
     </x:row>
     <x:row r="486" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A486" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B486" s="1" t="s">
         <x:v>360</x:v>
       </x:c>
-      <x:c r="B486" s="1" t="s">
-        <x:v>359</x:v>
-      </x:c>
       <x:c r="C486" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D486" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E486" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F486" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="487" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A487" s="1" t="s">
-        <x:v>358</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B487" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C487" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D487" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E487" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F487" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="488" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A488" s="1" t="s">
-        <x:v>360</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B488" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C488" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D488" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E488" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F488" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="489" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A489" s="1" t="s">
-        <x:v>358</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B489" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C489" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D489" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E489" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F489" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="490" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A490" s="1" t="s">
-        <x:v>360</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B490" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C490" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D490" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E490" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F490" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="491" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A491" s="1" t="s">
-        <x:v>358</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B491" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="C491" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D491" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E491" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F491" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="492" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A492" s="1" t="s">
-        <x:v>358</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B492" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="C492" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D492" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E492" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F492" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="493" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A493" s="1" t="s">
-        <x:v>360</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B493" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="C493" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D493" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E493" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F493" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="494" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A494" s="1" t="s">
-        <x:v>360</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B494" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="C494" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D494" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E494" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F494" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="495" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A495" s="1" t="s">
-        <x:v>358</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B495" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="C495" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D495" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E495" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F495" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="496" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A496" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B496" s="1" t="s">
-        <x:v>361</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="C496" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D496" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E496" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F496" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="497" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A497" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B497" s="1" t="s">
-        <x:v>361</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C497" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D497" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E497" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F497" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="498" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A498" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="B498" s="1" t="s">
-        <x:v>361</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C498" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D498" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E498" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F498" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="499" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A499" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="B499" s="1" t="s">
-        <x:v>361</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C499" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D499" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E499" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F499" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="500" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A500" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B500" s="1" t="s">
-        <x:v>361</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C500" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D500" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E500" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F500" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="501" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A501" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="B501" s="1" t="s">
-        <x:v>362</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C501" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D501" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E501" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F501" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="502" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A502" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B502" s="1" t="s">
-        <x:v>362</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C502" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D502" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E502" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F502" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="503" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A503" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="B503" s="1" t="s">
-        <x:v>362</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C503" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D503" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E503" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F503" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="504" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A504" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B504" s="1" t="s">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C504" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D504" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E504" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F504" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="505" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A505" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B505" s="1" t="s">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C505" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D505" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E505" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F505" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="506" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A506" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="B506" s="1" t="s">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C506" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D506" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E506" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F506" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="507" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A507" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="B507" s="1" t="s">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C507" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D507" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E507" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F507" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="508" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A508" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B508" s="1" t="s">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C508" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D508" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E508" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F508" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="509" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A509" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B509" s="1" t="s">
-        <x:v>363</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="C509" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D509" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E509" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F509" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="510" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A510" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B510" s="1" t="s">
-        <x:v>363</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="C510" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D510" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E510" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F510" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="511" spans="1:8" customFormat="1" ht="15" customHeight="1">
       <x:c r="A511" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B511" s="1" t="s">
-        <x:v>363</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="C511" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D511" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E511" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F511" s="1" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="512" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="513" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="514" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="515" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="516" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="512" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A512" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B512" s="1" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="C512" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D512" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E512" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F512" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="513" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A513" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B513" s="1" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="C513" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D513" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E513" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F513" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="514" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A514" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B514" s="1" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="C514" s="1" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="D514" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E514" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F514" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="515" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A515" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B515" s="1" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="C515" s="1" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="D515" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E515" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="F515" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="516" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A516" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B516" s="1" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="C516" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D516" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E516" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F516" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="517" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="518" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="519" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="520" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="521" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:autoFilter ref="A1:H1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
